--- a/openpyxl/openpyxl-create.xlsx
+++ b/openpyxl/openpyxl-create.xlsx
@@ -1,190 +1,246 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="24180" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="10月工资表" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="10月工资表" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
+  <si>
+    <t>767423816@qq.com</t>
+  </si>
+  <si>
+    <t>小小晴天</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>业务部</t>
+  </si>
+  <si>
+    <t>销售</t>
+  </si>
+  <si>
+    <t>zhangsan@163.com</t>
+  </si>
+  <si>
+    <t>张三</t>
+  </si>
+  <si>
+    <t>酱油一部</t>
+  </si>
+  <si>
+    <t>打酱油</t>
+  </si>
+  <si>
+    <t>最高薪资</t>
+  </si>
+  <si>
+    <t>最低薪资</t>
+  </si>
+  <si>
+    <t>平均薪资</t>
+  </si>
+  <si>
+    <t>乘积</t>
+  </si>
+  <si>
+    <t>汇总</t>
+  </si>
+  <si>
+    <t>计数</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="21">
-    <font>
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
-    <fill>
-      <patternFill/>
+  <fills count="34">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -370,12 +426,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -479,159 +550,154 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -685,74 +751,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1039,183 +1042,198 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FFFF0033"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col width="23.75" customWidth="1" min="1" max="1"/>
-    <col width="8.875" customWidth="1" min="2" max="2"/>
-    <col width="5.375" customWidth="1" min="3" max="3"/>
-    <col width="8.875" customWidth="1" min="4" max="5"/>
-    <col width="6.375" customWidth="1" min="6" max="6"/>
+    <col min="1" max="1" width="23.75" customWidth="1"/>
+    <col min="2" max="2" width="8.875" customWidth="1"/>
+    <col min="3" max="3" width="5.375" customWidth="1"/>
+    <col min="4" max="5" width="8.875" customWidth="1"/>
+    <col min="6" max="6" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>mrdengzhiteng@163.com</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>邓志腾</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>研发部</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>前端开发</t>
-        </is>
-      </c>
-      <c r="F1" t="n">
-        <v>7500</v>
+    <row r="1" ht="14.25" customHeight="1"/>
+    <row r="2" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>767423816@qq.com</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>小小晴天</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>业务部</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>销售</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10000</v>
+    <row r="3" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>zhangsan@163.com</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>张三</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>酱油一部</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>打酱油</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+    <row r="4" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <f>MAX(F2:F7)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>767423816@qq.com</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>小小晴天</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <f>MIN(F2:F7)</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>zhangsan@163.com</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>张三</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <f>AVERAGE(F2:F7)</f>
+        <v>20</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>767423816@qq.com</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>小小晴天</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <f>PRODUCT(F2:F7)</f>
+        <v>24000</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>zhangsan@163.com</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>张三</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12">
+        <f>SUM(F2:F7)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <f>COUNT(F2:F7)</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1223,41 +1241,38 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>